--- a/Message_format.xlsx
+++ b/Message_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\JobHunt\Xnergy\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7CA32-6DC9-4FD8-95F9-56D4F6380848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8069BB-6E12-4268-AFAF-041622D0BE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="2556" windowWidth="14556" windowHeight="11136" xr2:uid="{A84CF5A7-2090-471E-9442-3639F2122D3D}"/>
+    <workbookView xWindow="1752" yWindow="2556" windowWidth="18120" windowHeight="11136" xr2:uid="{A84CF5A7-2090-471E-9442-3639F2122D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>D[0]</t>
   </si>
@@ -90,6 +90,40 @@
   </si>
   <si>
     <t>Outgoing (Charger to BMS) during stop charging</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Assumption:
+Vref = 32.1V =&gt; 321d = 0x141
+Iref = 100A =&gt; 1000d = 0x03E8</t>
+  </si>
+  <si>
+    <t>0x41</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0xE8</t>
+  </si>
+  <si>
+    <t>0x31</t>
+  </si>
+  <si>
+    <t>Assumption:
+Vfb = 30.5V =&gt; 305d = 0x131
+Ifb = 100A =&gt; 1000d = 0x03B6</t>
+  </si>
+  <si>
+    <t>0xB8</t>
+  </si>
+  <si>
+    <t>Based on requirement, this will not be transmitted since this message is transmitted only in operation state. 
+Assumption:
+Vfb = 30.5V =&gt; 305d = 0x131
+Ifb = 100A =&gt; 1000d = 0x03B6</t>
   </si>
 </sst>
 </file>
@@ -139,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,19 +504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C549D38-E29C-414F-8794-0C09FD67F251}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C16:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="32.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -505,8 +543,11 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -535,7 +576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -564,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -593,24 +634,132 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
